--- a/shipClassTests/testResults/ship_test.xlsx
+++ b/shipClassTests/testResults/ship_test.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,30 +480,1218 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f>IF(B3=E3,1,0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>IF(B4=E4,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>IF(B5=E5,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>IF(B6=E6,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>IF(B7=E7,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>IF(B8=E8,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>IF(B9=E9,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>IF(B10=E10,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>IF(B11=E11,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>IF(B12=E12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>IF(B13=E13,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>IF(B14=E14,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>IF(B15=E15,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>IF(B16=E16,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>IF(B17=E17,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>IF(B18=E18,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>IF(B19=E19,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>IF(B20=E20,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>IF(B21=E21,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f>IF(B22=E22,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>IF(B23=E23,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f>IF(B24=E24,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f>IF(B25=E25,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>IF(B26=E26,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f>IF(B27=E27,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f>IF(B28=E28,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>IF(B29=E29,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>IF(B30=E30,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>IF(B31=E31,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>IF(B32=E32,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f>IF(B33=E33,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f>IF(B34=E34,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>IF(B35=E35,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>IF(B36=E36,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>IF(B37=E37,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f>IF(B38=E38,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f>IF(B39=E39,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>IF(B40=E40,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f>IF(B41=E41,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f>IF(B42=E42,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f>IF(B43=E43,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f>IF(B44=E44,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f>IF(B45=E45,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f>IF(B46=E46,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f>IF(B47=E47,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -519,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,8 +1829,1724 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>IF(B4 = G4, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>IF(B5 = G5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>IF(B6 = G6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>IF(B7 = G7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>IF(B8 = G8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>IF(B9 = G9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>IF(B10 = G10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>IF(B11 = G11, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>IF(B12 = G12, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>IF(B13 = G13, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>IF(B14 = G14, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f>IF(B15 = G15, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>IF(B16 = G16, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>IF(B17 = G17, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>IF(B18 = G18, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>IF(B19 = G19, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f>IF(B20 = G20, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>IF(B21 = G21, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>IF(B22 = G22, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>IF(B23 = G23, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>IF(B24 = G24, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>IF(B25 = G25, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f>IF(B26 = G26, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f>IF(B27 = G27, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>IF(B28 = G28, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>IF(B29 = G29, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>IF(B30 = G30, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>IF(B31 = G31, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>IF(B32 = G32, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f>IF(B33 = G33, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f>IF(B34 = G34, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f>IF(B35 = G35, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f>IF(B36 = G36, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f>IF(B37 = G37, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <f>IF(B38 = G38, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f>IF(B39 = G39, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f>IF(B40 = G40, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f>IF(B41 = G41, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f>IF(B42 = G42, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f>IF(B43 = G43, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f>IF(B44 = G44, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f>IF(B45 = G45, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f>IF(B46 = G46, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <f>IF(B47 = G47, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="L2:L47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -658,7 +3562,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -770,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -788,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -809,15 +3713,2259 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f>IF(B3 = I3, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>IF(B4 = I4, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f>IF(B5 = I5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f>IF(B6 = I6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>IF(B7 = I7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>IF(B8 = I8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>IF(B9 = I9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f>IF(B10 = I10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>IF(B11 = I11, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>IF(B12 = I12, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>IF(B13 = I13, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>IF(B14 = I14, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f>IF(B15 = I15, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f>IF(B16 = I16, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f>IF(B17 = I17, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f>IF(B18 = I18, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f>IF(B19 = I19, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f>IF(B20 = I20, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f>IF(B21 = I21, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f>IF(B22 = I22, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>IF(B23 = I23, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>IF(B24 = I24, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f>IF(B25 = I25, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f>IF(B26 = I26, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f>IF(B27 = I27, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f>IF(B28 = I28, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f>IF(B29 = I29, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f>IF(B30 = I30, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f>IF(B31 = I31, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f>IF(B32 = I32, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f>IF(B33 = I33, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f>IF(B34 = I34, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f>IF(B35 = I35, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f>IF(B36 = I36, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f>IF(B37 = I37, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f>IF(B38 = I38, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f>IF(B39 = I39, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f>IF(B40 = I40, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f>IF(B41 = I41, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f>IF(B42 = I42, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f>IF(B43 = I43, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f>IF(B44 = I44, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f>IF(B45 = I45, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f>IF(B46 = I46, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f>IF(B47 = I47, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="P2:P47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
